--- a/Thesis Companies.xlsx
+++ b/Thesis Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graysonhamrick/Library/Mobile Documents/com~apple~CloudDocs/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graysonhamrick/Library/Mobile Documents/com~apple~CloudDocs/Documents/Math-Senior-Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E51655D-881F-0F47-BFF0-E5993B86F690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977124A0-63F2-6D43-9B82-87D1D7674A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{E4AB857A-0EE2-7843-BB72-CE729F8DE291}"/>
+    <workbookView xWindow="-27340" yWindow="500" windowWidth="27320" windowHeight="19940" xr2:uid="{E4AB857A-0EE2-7843-BB72-CE729F8DE291}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,6 +238,19 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -260,16 +273,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -287,9 +290,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -304,17 +304,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81C85CBB-63C5-C844-ABE7-6FA3673FEBBF}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81C85CBB-63C5-C844-ABE7-6FA3673FEBBF}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H1048576" xr:uid="{A20F888B-9F14-5D47-B7E2-EEADD9750D11}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C2E0DD80-4EA6-2F42-A7D5-5148B2F8FB21}" name="Name" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{6698E4D1-D489-F64E-973E-EF9E9CB3F79B}" name="Ticker" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E3781B8B-E0D2-1F4B-AC9D-E4B2D67F6466}" name="Renewable" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8D4B6FBF-4583-614C-AA21-A86185894E61}" name="Category" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0ECE1F6F-CAAF-B245-89FE-E7AC92534FEE}" name="Founded" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{5BE847E3-56B5-7C43-9095-54DEFF65D87D}" name="IPO" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{BE783BCD-4716-F646-8F16-6B7F654F76E2}" name="Cap" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{541AB3B4-42A2-0245-B5A8-30E06148719C}" name="Blurb (from Yahoo! Finance)" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C2E0DD80-4EA6-2F42-A7D5-5148B2F8FB21}" name="Name" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{6698E4D1-D489-F64E-973E-EF9E9CB3F79B}" name="Ticker" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E3781B8B-E0D2-1F4B-AC9D-E4B2D67F6466}" name="Renewable" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8D4B6FBF-4583-614C-AA21-A86185894E61}" name="Category" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0ECE1F6F-CAAF-B245-89FE-E7AC92534FEE}" name="Founded" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5BE847E3-56B5-7C43-9095-54DEFF65D87D}" name="IPO" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{BE783BCD-4716-F646-8F16-6B7F654F76E2}" name="Cap" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{541AB3B4-42A2-0245-B5A8-30E06148719C}" name="Blurb (from Yahoo! Finance)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,7 +620,7 @@
   <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
